--- a/new_add.xlsx
+++ b/new_add.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Falcon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Falcon\Downloads\Projects\Falcon Projects\Data Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="894">
   <si>
     <t>Street</t>
   </si>
@@ -1820,6 +1820,900 @@
   </si>
   <si>
     <t>25020 Colfax St,</t>
+  </si>
+  <si>
+    <t>1523 1st Ave W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bradenton, FL 34205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4702 20th St W </t>
+  </si>
+  <si>
+    <t>4612 20th St W</t>
+  </si>
+  <si>
+    <t>4610 20th St W</t>
+  </si>
+  <si>
+    <t>4609 20th St W</t>
+  </si>
+  <si>
+    <t>4611 20th St W</t>
+  </si>
+  <si>
+    <t>4701 20th St W</t>
+  </si>
+  <si>
+    <t>4613 21st St W</t>
+  </si>
+  <si>
+    <t>4609 21st St W</t>
+  </si>
+  <si>
+    <t>4706 21st St W</t>
+  </si>
+  <si>
+    <t>4708 21st St W</t>
+  </si>
+  <si>
+    <t>4707 21st St W</t>
+  </si>
+  <si>
+    <t>2011 48th Ave W</t>
+  </si>
+  <si>
+    <t>4416 20th St W</t>
+  </si>
+  <si>
+    <t>4420 20th St W</t>
+  </si>
+  <si>
+    <t>4424 20th St W</t>
+  </si>
+  <si>
+    <t>4419 20th St W</t>
+  </si>
+  <si>
+    <t>4421 20th St W</t>
+  </si>
+  <si>
+    <t>4425 20th St W</t>
+  </si>
+  <si>
+    <t>4427 20th St W</t>
+  </si>
+  <si>
+    <t>4429 20th St W</t>
+  </si>
+  <si>
+    <t>4431 20th St W</t>
+  </si>
+  <si>
+    <t>4504 20th St W</t>
+  </si>
+  <si>
+    <t>4506 20th St W</t>
+  </si>
+  <si>
+    <t>4508 20th St W</t>
+  </si>
+  <si>
+    <t>4509 20th St W</t>
+  </si>
+  <si>
+    <t>4512 20th St W</t>
+  </si>
+  <si>
+    <t>4514 20th St W</t>
+  </si>
+  <si>
+    <t>4516 20th St W</t>
+  </si>
+  <si>
+    <t>4517 20th St W</t>
+  </si>
+  <si>
+    <t>4519 20th St W</t>
+  </si>
+  <si>
+    <t>4522 20th St W</t>
+  </si>
+  <si>
+    <t>4523 20th St W</t>
+  </si>
+  <si>
+    <t>4526 20th St W</t>
+  </si>
+  <si>
+    <t>4600 20th St W</t>
+  </si>
+  <si>
+    <t>4603 20th St W</t>
+  </si>
+  <si>
+    <t>4604 20th St W</t>
+  </si>
+  <si>
+    <t>4605 20th St W</t>
+  </si>
+  <si>
+    <t>4607 20th St W</t>
+  </si>
+  <si>
+    <t>4712 20th St W</t>
+  </si>
+  <si>
+    <t>4801 20th St W</t>
+  </si>
+  <si>
+    <t>4814 20th St W</t>
+  </si>
+  <si>
+    <t>4904 20th St W</t>
+  </si>
+  <si>
+    <t>4910 20th St W</t>
+  </si>
+  <si>
+    <t>4912 20th St W</t>
+  </si>
+  <si>
+    <t>4918 20th St W</t>
+  </si>
+  <si>
+    <t>4907 20th St W</t>
+  </si>
+  <si>
+    <t>5001 20th St W</t>
+  </si>
+  <si>
+    <t>5002 20th St W</t>
+  </si>
+  <si>
+    <t>5003 20th St W</t>
+  </si>
+  <si>
+    <t>5004 20th St W</t>
+  </si>
+  <si>
+    <t>5005 20th St W</t>
+  </si>
+  <si>
+    <t>5006 20th St W</t>
+  </si>
+  <si>
+    <t>5007 20th St W</t>
+  </si>
+  <si>
+    <t>5008 20th St W</t>
+  </si>
+  <si>
+    <t>5102 20th St W</t>
+  </si>
+  <si>
+    <t>5103 20th St W</t>
+  </si>
+  <si>
+    <t>5104 20th St W</t>
+  </si>
+  <si>
+    <t>5105 20th St W</t>
+  </si>
+  <si>
+    <t>5107 20th St W</t>
+  </si>
+  <si>
+    <t>5108 20th St W</t>
+  </si>
+  <si>
+    <t>5109 20th St W</t>
+  </si>
+  <si>
+    <t>5110 20th St W</t>
+  </si>
+  <si>
+    <t>5112 20th St W</t>
+  </si>
+  <si>
+    <t>5116 20th St W</t>
+  </si>
+  <si>
+    <t>5117 20th St W</t>
+  </si>
+  <si>
+    <t>5115 20th St W</t>
+  </si>
+  <si>
+    <t>5118 20th St W</t>
+  </si>
+  <si>
+    <t>5119 20th St W</t>
+  </si>
+  <si>
+    <t>5120 20th St W</t>
+  </si>
+  <si>
+    <t>5121 20th St W</t>
+  </si>
+  <si>
+    <t>5122 20th St W</t>
+  </si>
+  <si>
+    <t>5123 20th St W</t>
+  </si>
+  <si>
+    <t>5124 20th St W</t>
+  </si>
+  <si>
+    <t>5201 20th St W</t>
+  </si>
+  <si>
+    <t>5202 20th St W</t>
+  </si>
+  <si>
+    <t>5205 20th St W</t>
+  </si>
+  <si>
+    <t>5216 20th St W</t>
+  </si>
+  <si>
+    <t>5215 20th St W</t>
+  </si>
+  <si>
+    <t>5217 20th St W</t>
+  </si>
+  <si>
+    <t>5218 20th St W</t>
+  </si>
+  <si>
+    <t>5220 20th St W</t>
+  </si>
+  <si>
+    <t>5221 20th St W</t>
+  </si>
+  <si>
+    <t>5241 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5240 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5237 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5233 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5232 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5229 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5228 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5224 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5220 21st St Ct W</t>
+  </si>
+  <si>
+    <t>5124 21st St W</t>
+  </si>
+  <si>
+    <t>5123 21st St W</t>
+  </si>
+  <si>
+    <t>5122 21st St W</t>
+  </si>
+  <si>
+    <t>5120 21st St W</t>
+  </si>
+  <si>
+    <t>5119 21st St W</t>
+  </si>
+  <si>
+    <t>5118 21st St W</t>
+  </si>
+  <si>
+    <t>5117 21st St W</t>
+  </si>
+  <si>
+    <t>5115 21st St W</t>
+  </si>
+  <si>
+    <t>5111 21st St W</t>
+  </si>
+  <si>
+    <t>5109 21st St W</t>
+  </si>
+  <si>
+    <t>5108 21st St W</t>
+  </si>
+  <si>
+    <t>5106 21st St W</t>
+  </si>
+  <si>
+    <t>5105 21st St W</t>
+  </si>
+  <si>
+    <t>5103 21st St W</t>
+  </si>
+  <si>
+    <t>5102 21st St W</t>
+  </si>
+  <si>
+    <t>5018 21st St W</t>
+  </si>
+  <si>
+    <t>5013 21st St W</t>
+  </si>
+  <si>
+    <t>5014 21st St W</t>
+  </si>
+  <si>
+    <t>5011 21st St W</t>
+  </si>
+  <si>
+    <t>5009 21st St W</t>
+  </si>
+  <si>
+    <t>5007 21st St W</t>
+  </si>
+  <si>
+    <t>5006 21st St W</t>
+  </si>
+  <si>
+    <t>5005 21st St W</t>
+  </si>
+  <si>
+    <t>5004 21st St W</t>
+  </si>
+  <si>
+    <t>5003 21st St W</t>
+  </si>
+  <si>
+    <t>5001 21st St W</t>
+  </si>
+  <si>
+    <t>4917 21st St W</t>
+  </si>
+  <si>
+    <t>4916 21st St W</t>
+  </si>
+  <si>
+    <t>4913 21st St W</t>
+  </si>
+  <si>
+    <t>4912 21st St W</t>
+  </si>
+  <si>
+    <t>4909 21st St W</t>
+  </si>
+  <si>
+    <t>4908 21st St W</t>
+  </si>
+  <si>
+    <t>4907 21st St W</t>
+  </si>
+  <si>
+    <t>4906 21st St W</t>
+  </si>
+  <si>
+    <t>4812 21st St W</t>
+  </si>
+  <si>
+    <t>4815 21st St W</t>
+  </si>
+  <si>
+    <t>4809 21st St W</t>
+  </si>
+  <si>
+    <t>4808 21st St W</t>
+  </si>
+  <si>
+    <t>4806 21st St W</t>
+  </si>
+  <si>
+    <t>4805 21st St W</t>
+  </si>
+  <si>
+    <t>4814 21st St W</t>
+  </si>
+  <si>
+    <t>4709 22nd St W</t>
+  </si>
+  <si>
+    <t>4710 22nd St W</t>
+  </si>
+  <si>
+    <t>4801 22nd St W</t>
+  </si>
+  <si>
+    <t>4805 22nd St W</t>
+  </si>
+  <si>
+    <t>4806 22nd St W</t>
+  </si>
+  <si>
+    <t>4807 22nd St W</t>
+  </si>
+  <si>
+    <t>4808 22nd St W</t>
+  </si>
+  <si>
+    <t>4809 22nd St W</t>
+  </si>
+  <si>
+    <t>4810 22nd St W</t>
+  </si>
+  <si>
+    <t>4811 22nd St W</t>
+  </si>
+  <si>
+    <t>4906 22nd St W</t>
+  </si>
+  <si>
+    <t>4909 22nd St W</t>
+  </si>
+  <si>
+    <t>4910 22nd St W</t>
+  </si>
+  <si>
+    <t>4912 22nd St W</t>
+  </si>
+  <si>
+    <t>4913 22nd St W</t>
+  </si>
+  <si>
+    <t>4917 22nd St W</t>
+  </si>
+  <si>
+    <t>5001 22nd St W</t>
+  </si>
+  <si>
+    <t>5002 22nd St W</t>
+  </si>
+  <si>
+    <t>5003 22nd St W</t>
+  </si>
+  <si>
+    <t>5004 22nd St W</t>
+  </si>
+  <si>
+    <t>5005 22nd St W</t>
+  </si>
+  <si>
+    <t>5006 22nd St W</t>
+  </si>
+  <si>
+    <t>5007 22nd St W</t>
+  </si>
+  <si>
+    <t>5008 22nd St W</t>
+  </si>
+  <si>
+    <t>5013 22nd St W</t>
+  </si>
+  <si>
+    <t>5017 22nd St W</t>
+  </si>
+  <si>
+    <t>5015 23rd St W,</t>
+  </si>
+  <si>
+    <t>5011 23rd St W</t>
+  </si>
+  <si>
+    <t>5009 23rd St W</t>
+  </si>
+  <si>
+    <t>5007 23rd St W</t>
+  </si>
+  <si>
+    <t>5010 23rd St W</t>
+  </si>
+  <si>
+    <t>5008 23rd St W</t>
+  </si>
+  <si>
+    <t>5006 23rd St W</t>
+  </si>
+  <si>
+    <t>5005 23rd St W</t>
+  </si>
+  <si>
+    <t>5003 23rd St W</t>
+  </si>
+  <si>
+    <t>4912 23rd St W</t>
+  </si>
+  <si>
+    <t>4909 23rd St W</t>
+  </si>
+  <si>
+    <t>4906 23rd St W</t>
+  </si>
+  <si>
+    <t>4905 23rd St W</t>
+  </si>
+  <si>
+    <t>4815 23rd St W</t>
+  </si>
+  <si>
+    <t>4812 23rd St W</t>
+  </si>
+  <si>
+    <t>4810 23rd St W</t>
+  </si>
+  <si>
+    <t>4809 23rd St W</t>
+  </si>
+  <si>
+    <t>4808 23rd St W</t>
+  </si>
+  <si>
+    <t>4807 23rd St W</t>
+  </si>
+  <si>
+    <t>4806 23rd St W</t>
+  </si>
+  <si>
+    <t>4805 23rd St W</t>
+  </si>
+  <si>
+    <t>4804 23rd St W</t>
+  </si>
+  <si>
+    <t>4803 23rd St W</t>
+  </si>
+  <si>
+    <t>4706 24th St W</t>
+  </si>
+  <si>
+    <t>4701 24th St W</t>
+  </si>
+  <si>
+    <t>4803 24th St W</t>
+  </si>
+  <si>
+    <t>4804 24th St W</t>
+  </si>
+  <si>
+    <t>4805 24th St W</t>
+  </si>
+  <si>
+    <t>4806 24th St W</t>
+  </si>
+  <si>
+    <t>4807 24th St W</t>
+  </si>
+  <si>
+    <t>4808 24th St W</t>
+  </si>
+  <si>
+    <t>4809 24th St W</t>
+  </si>
+  <si>
+    <t>4810 24th St W</t>
+  </si>
+  <si>
+    <t>4811 24th St W</t>
+  </si>
+  <si>
+    <t>4812 24th St W</t>
+  </si>
+  <si>
+    <t>4816 24th St W</t>
+  </si>
+  <si>
+    <t>5001 24th St W</t>
+  </si>
+  <si>
+    <t>5004 24th St W</t>
+  </si>
+  <si>
+    <t>5006 24th St W</t>
+  </si>
+  <si>
+    <t>5007 24th St W</t>
+  </si>
+  <si>
+    <t>5008 24th St W</t>
+  </si>
+  <si>
+    <t>5012 24th St W</t>
+  </si>
+  <si>
+    <t>5018 24th St W</t>
+  </si>
+  <si>
+    <t>5020 24th St W</t>
+  </si>
+  <si>
+    <t>5022 24th St W</t>
+  </si>
+  <si>
+    <t>7412 Thomas St</t>
+  </si>
+  <si>
+    <t>Englewood, FL 34224</t>
+  </si>
+  <si>
+    <t>7413 Thomas St</t>
+  </si>
+  <si>
+    <t>7404 Thomas St</t>
+  </si>
+  <si>
+    <t>7396 Thomas St</t>
+  </si>
+  <si>
+    <t>7397 Thomas St</t>
+  </si>
+  <si>
+    <t>7388 Thomas St</t>
+  </si>
+  <si>
+    <t>7389 Thomas St</t>
+  </si>
+  <si>
+    <t>7380 Thomas St</t>
+  </si>
+  <si>
+    <t>7381 Thomas St</t>
+  </si>
+  <si>
+    <t>7375 Thomas St</t>
+  </si>
+  <si>
+    <t>7372 Thomas St</t>
+  </si>
+  <si>
+    <t>7354 Thomas St</t>
+  </si>
+  <si>
+    <t>7355 Thomas St</t>
+  </si>
+  <si>
+    <t>7338 Thomas St</t>
+  </si>
+  <si>
+    <t>7339 Thomas St</t>
+  </si>
+  <si>
+    <t>7329 Thomas St</t>
+  </si>
+  <si>
+    <t>7316 Thomas St</t>
+  </si>
+  <si>
+    <t>7304 Thomas St</t>
+  </si>
+  <si>
+    <t>9052 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9053 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9060 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9061 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9068 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9076 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9084 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9093 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9100 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9108 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9109 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9116 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9117 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9124 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9125 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9132 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9133 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9140 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9141 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9148 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9149 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9151 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>9171 Castle Hill Ave</t>
+  </si>
+  <si>
+    <t>7410 Clayton St</t>
+  </si>
+  <si>
+    <t>7402 Clayton St</t>
+  </si>
+  <si>
+    <t>7403 Clayton St</t>
+  </si>
+  <si>
+    <t>7411 Clayton St</t>
+  </si>
+  <si>
+    <t>7418 Clayton St</t>
+  </si>
+  <si>
+    <t>7419 Clayton St</t>
+  </si>
+  <si>
+    <t>7426 Clayton St</t>
+  </si>
+  <si>
+    <t>7427 Clayton St</t>
+  </si>
+  <si>
+    <t>7450 Clayton St</t>
+  </si>
+  <si>
+    <t>7434 Clayton St</t>
+  </si>
+  <si>
+    <t>7451 Clayton St</t>
+  </si>
+  <si>
+    <t>7466 Clayton St</t>
+  </si>
+  <si>
+    <t>7474 Clayton St</t>
+  </si>
+  <si>
+    <t>7490 Clayton St</t>
+  </si>
+  <si>
+    <t>7498 Clayton St</t>
+  </si>
+  <si>
+    <t>7482 Claypool St</t>
+  </si>
+  <si>
+    <t>7474 Claypool St</t>
+  </si>
+  <si>
+    <t>7475 Claypool St</t>
+  </si>
+  <si>
+    <t>7466 Claypool St</t>
+  </si>
+  <si>
+    <t>7467 Claypool St</t>
+  </si>
+  <si>
+    <t>7458 Claypool St</t>
+  </si>
+  <si>
+    <t>7450 Claypool St</t>
+  </si>
+  <si>
+    <t>7435 Claypool St</t>
+  </si>
+  <si>
+    <t>7442 Claypool St</t>
+  </si>
+  <si>
+    <t>7426 Claypool St</t>
+  </si>
+  <si>
+    <t>7418 Claypool St</t>
+  </si>
+  <si>
+    <t>7403 Claypool St</t>
+  </si>
+  <si>
+    <t>7411 Clearwater St</t>
+  </si>
+  <si>
+    <t>7418 Clearwater St</t>
+  </si>
+  <si>
+    <t>7419 Clearwater St</t>
+  </si>
+  <si>
+    <t>7426 Clearwater St</t>
+  </si>
+  <si>
+    <t>7435 Clearwater St</t>
+  </si>
+  <si>
+    <t>7442 Clearwater St</t>
+  </si>
+  <si>
+    <t>7451 Clearwater St</t>
+  </si>
+  <si>
+    <t>7474 Clearwater St</t>
+  </si>
+  <si>
+    <t>7475 Clearwater St</t>
+  </si>
+  <si>
+    <t>7482 Clearwater St</t>
+  </si>
+  <si>
+    <t>7499 Clearwater St</t>
+  </si>
+  <si>
+    <t>7403 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7411 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7418 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7426 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7427 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7434 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7442 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7450 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7451 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7453 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7459 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7482 Ashtabula St</t>
+  </si>
+  <si>
+    <t>7483 Ashtabula St</t>
   </si>
 </sst>
 </file>
@@ -1876,10 +2770,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417"/>
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6501,6 +7398,2422 @@
         <v>557</v>
       </c>
     </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new_add.xlsx
+++ b/new_add.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="814">
   <si>
     <t>Street</t>
   </si>
@@ -979,9 +979,6 @@
     <t>18318 Burkholder Cir,</t>
   </si>
   <si>
-    <t>Palm Plan in North Port,</t>
-  </si>
-  <si>
     <t>903 Baer Ave,</t>
   </si>
   <si>
@@ -1477,9 +1474,6 @@
     <t>227 Grey Goose Blvd #42</t>
   </si>
   <si>
-    <t>Tbd E Monroe St</t>
-  </si>
-  <si>
     <t>19811 Maples Rd,</t>
   </si>
   <si>
@@ -1528,9 +1522,6 @@
     <t>246 Bielby Rd,</t>
   </si>
   <si>
-    <t>Longview Dr,</t>
-  </si>
-  <si>
     <t>20 Tebbs Ave,</t>
   </si>
   <si>
@@ -1549,18 +1540,9 @@
     <t>23123 Brightwood Dr,</t>
   </si>
   <si>
-    <t>Lucerne Ln,</t>
-  </si>
-  <si>
-    <t>Cliftmont Cir,</t>
-  </si>
-  <si>
     <t>22364 Dakota Dr,</t>
   </si>
   <si>
-    <t>Rookwood Dr,</t>
-  </si>
-  <si>
     <t>20020 Ravenda Dr,</t>
   </si>
   <si>
@@ -1573,78 +1555,12 @@
     <t>1104 Sunset Dr,</t>
   </si>
   <si>
-    <t>Cresthaven Dr,</t>
-  </si>
-  <si>
     <t>21169 Alpine Dr,</t>
   </si>
   <si>
     <t>1962 Einsel Rd,</t>
   </si>
   <si>
-    <t>Aqua Vista Dr,</t>
-  </si>
-  <si>
-    <t>22425 Montana Dr,</t>
-  </si>
-  <si>
-    <t>236 E High St,</t>
-  </si>
-  <si>
-    <t>342 Short St,</t>
-  </si>
-  <si>
-    <t>Timberline Trl,</t>
-  </si>
-  <si>
-    <t>Colorado Dr,</t>
-  </si>
-  <si>
-    <t>awrenceburg, IN 47025</t>
-  </si>
-  <si>
-    <t>20072 Cravenhurst Dr,</t>
-  </si>
-  <si>
-    <t>Crossbow Trails Ln,</t>
-  </si>
-  <si>
-    <t>1522 Lakeview Dr,</t>
-  </si>
-  <si>
-    <t>Indian Woods Trl,</t>
-  </si>
-  <si>
-    <t>22 Butler Ct,</t>
-  </si>
-  <si>
-    <t>19893 Lakeview Dr,</t>
-  </si>
-  <si>
-    <t>Seeley Rd,</t>
-  </si>
-  <si>
-    <t>West Harrison, IN 47060</t>
-  </si>
-  <si>
-    <t>156 Grimes Valley Dr,</t>
-  </si>
-  <si>
-    <t>150 Grimes Valley Dr,</t>
-  </si>
-  <si>
-    <t>1032 Carolina Trace Rd,</t>
-  </si>
-  <si>
-    <t>US Highway 52,</t>
-  </si>
-  <si>
-    <t>28618 State Route 1,</t>
-  </si>
-  <si>
-    <t>28440 Peppertown Rd,</t>
-  </si>
-  <si>
     <t>102 Aztec St,</t>
   </si>
   <si>
@@ -1664,162 +1580,6 @@
   </si>
   <si>
     <t>3207 S Main St,</t>
-  </si>
-  <si>
-    <t>110 Beech Ct,</t>
-  </si>
-  <si>
-    <t>Hebron, IN 46341</t>
-  </si>
-  <si>
-    <t>432 Bricker St,</t>
-  </si>
-  <si>
-    <t>427 Bricker St,</t>
-  </si>
-  <si>
-    <t>436 Bricker St,</t>
-  </si>
-  <si>
-    <t>431 Bricker St,</t>
-  </si>
-  <si>
-    <t>433 Bricker St,</t>
-  </si>
-  <si>
-    <t>8951 E 137th Ave,</t>
-  </si>
-  <si>
-    <t>617-4 W 650 S,</t>
-  </si>
-  <si>
-    <t>610 Petry St,</t>
-  </si>
-  <si>
-    <t>18895 Mississippi St,</t>
-  </si>
-  <si>
-    <t>627 S 500 W,</t>
-  </si>
-  <si>
-    <t>17415 McKinley Pl,</t>
-  </si>
-  <si>
-    <t>Lowell, IN 46356</t>
-  </si>
-  <si>
-    <t>Glenwood Plan in Spring Run,</t>
-  </si>
-  <si>
-    <t>17573 Mount St,</t>
-  </si>
-  <si>
-    <t>Wren Plan in Spring Run,</t>
-  </si>
-  <si>
-    <t>202 Willow St,</t>
-  </si>
-  <si>
-    <t>Starling Plan in Spring Run,</t>
-  </si>
-  <si>
-    <t>8339 Graystone Dr,</t>
-  </si>
-  <si>
-    <t>Wysteria Plan in Heritage Falls,</t>
-  </si>
-  <si>
-    <t>Siena Plan in Spring Run,</t>
-  </si>
-  <si>
-    <t>8653 Yorktown Dr,</t>
-  </si>
-  <si>
-    <t>8460 Potomac Way,</t>
-  </si>
-  <si>
-    <t>16944 Red Oak Dr,</t>
-  </si>
-  <si>
-    <t>Sophia B fs Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>17530 Sunrise Dr,</t>
-  </si>
-  <si>
-    <t>8305 Graystone Dr,</t>
-  </si>
-  <si>
-    <t>Raleigh Plan in Kingston Ridge : Landmark Series,</t>
-  </si>
-  <si>
-    <t>17971 Fieldstone Ln,</t>
-  </si>
-  <si>
-    <t>17767 Fieldstone Ln,</t>
-  </si>
-  <si>
-    <t>19108 Wicker Ave,</t>
-  </si>
-  <si>
-    <t>Cheyenne II Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>301 Castle St,</t>
-  </si>
-  <si>
-    <t>Morgan Plan in Sierra Ridge,</t>
-  </si>
-  <si>
-    <t>Lancaster Plan in Heritage Falls,</t>
-  </si>
-  <si>
-    <t>Phillips Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>Kinkaid Plan in Sierra Ridge,</t>
-  </si>
-  <si>
-    <t>Parkwood fs Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>Jasmine Plan in Heritage Falls,</t>
-  </si>
-  <si>
-    <t>Sophia fs Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>540 S Lakeview Dr,</t>
-  </si>
-  <si>
-    <t>287 Washington St,</t>
-  </si>
-  <si>
-    <t>Rutherford Plan in Spring Run,</t>
-  </si>
-  <si>
-    <t>Bristol Plan in Sierra Ridge,</t>
-  </si>
-  <si>
-    <t>Onyx Plan in Heritage Falls,</t>
-  </si>
-  <si>
-    <t>Ashley Plan in Sierra Ridge,</t>
-  </si>
-  <si>
-    <t>4944 Stephen Ln,</t>
-  </si>
-  <si>
-    <t>105 Elm St,</t>
-  </si>
-  <si>
-    <t>5534 Malibu Dr,</t>
-  </si>
-  <si>
-    <t>Lexington IIs Plan in Freedom Springs,</t>
-  </si>
-  <si>
-    <t>25020 Colfax St,</t>
   </si>
   <si>
     <t>1523 1st Ave W</t>
@@ -3080,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C840"/>
+  <dimension ref="A1:C764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B542" sqref="B542"/>
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5347,7 +5107,7 @@
         <v>319</v>
       </c>
       <c r="B282" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5363,7 +5123,7 @@
         <v>321</v>
       </c>
       <c r="B284" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5403,7 +5163,7 @@
         <v>326</v>
       </c>
       <c r="B289" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5411,7 +5171,7 @@
         <v>327</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5419,7 +5179,7 @@
         <v>328</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5427,7 +5187,7 @@
         <v>329</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5539,7 +5299,7 @@
         <v>343</v>
       </c>
       <c r="B306" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5563,7 +5323,7 @@
         <v>346</v>
       </c>
       <c r="B309" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5571,7 +5331,7 @@
         <v>347</v>
       </c>
       <c r="B310" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5579,7 +5339,7 @@
         <v>348</v>
       </c>
       <c r="B311" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5587,7 +5347,7 @@
         <v>349</v>
       </c>
       <c r="B312" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5603,7 +5363,7 @@
         <v>351</v>
       </c>
       <c r="B314" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5635,7 +5395,7 @@
         <v>355</v>
       </c>
       <c r="B318" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5651,7 +5411,7 @@
         <v>357</v>
       </c>
       <c r="B320" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5811,7 +5571,7 @@
         <v>377</v>
       </c>
       <c r="B340" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5819,7 +5579,7 @@
         <v>378</v>
       </c>
       <c r="B341" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5843,7 +5603,7 @@
         <v>381</v>
       </c>
       <c r="B344" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5851,7 +5611,7 @@
         <v>382</v>
       </c>
       <c r="B345" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5883,7 +5643,7 @@
         <v>386</v>
       </c>
       <c r="B349" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5891,7 +5651,7 @@
         <v>387</v>
       </c>
       <c r="B350" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5931,7 +5691,7 @@
         <v>392</v>
       </c>
       <c r="B355" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5939,7 +5699,7 @@
         <v>393</v>
       </c>
       <c r="B356" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5955,7 +5715,7 @@
         <v>395</v>
       </c>
       <c r="B358" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5979,7 +5739,7 @@
         <v>398</v>
       </c>
       <c r="B361" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6019,7 +5779,7 @@
         <v>403</v>
       </c>
       <c r="B366" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6027,7 +5787,7 @@
         <v>404</v>
       </c>
       <c r="B367" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6051,23 +5811,23 @@
         <v>407</v>
       </c>
       <c r="B370" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B371" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B372" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6075,23 +5835,23 @@
         <v>412</v>
       </c>
       <c r="B373" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B374" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
+        <v>416</v>
+      </c>
+      <c r="B375" t="s">
         <v>415</v>
-      </c>
-      <c r="B375" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6099,7 +5859,7 @@
         <v>417</v>
       </c>
       <c r="B376" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6107,7 +5867,7 @@
         <v>418</v>
       </c>
       <c r="B377" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6115,31 +5875,31 @@
         <v>419</v>
       </c>
       <c r="B378" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B379" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B380" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
+        <v>425</v>
+      </c>
+      <c r="B381" t="s">
         <v>424</v>
-      </c>
-      <c r="B381" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6147,7 +5907,7 @@
         <v>426</v>
       </c>
       <c r="B382" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6155,7 +5915,7 @@
         <v>427</v>
       </c>
       <c r="B383" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6163,7 +5923,7 @@
         <v>428</v>
       </c>
       <c r="B384" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6171,7 +5931,7 @@
         <v>429</v>
       </c>
       <c r="B385" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6179,7 +5939,7 @@
         <v>430</v>
       </c>
       <c r="B386" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6187,7 +5947,7 @@
         <v>431</v>
       </c>
       <c r="B387" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6195,15 +5955,15 @@
         <v>432</v>
       </c>
       <c r="B388" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
+        <v>434</v>
+      </c>
+      <c r="B389" t="s">
         <v>433</v>
-      </c>
-      <c r="B389" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6211,7 +5971,7 @@
         <v>435</v>
       </c>
       <c r="B390" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6219,7 +5979,7 @@
         <v>436</v>
       </c>
       <c r="B391" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6227,7 +5987,7 @@
         <v>437</v>
       </c>
       <c r="B392" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6235,7 +5995,7 @@
         <v>438</v>
       </c>
       <c r="B393" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6243,15 +6003,15 @@
         <v>439</v>
       </c>
       <c r="B394" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
+        <v>441</v>
+      </c>
+      <c r="B395" t="s">
         <v>440</v>
-      </c>
-      <c r="B395" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6259,7 +6019,7 @@
         <v>442</v>
       </c>
       <c r="B396" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6267,7 +6027,7 @@
         <v>443</v>
       </c>
       <c r="B397" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6275,7 +6035,7 @@
         <v>444</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6283,7 +6043,7 @@
         <v>445</v>
       </c>
       <c r="B399" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6291,7 +6051,7 @@
         <v>446</v>
       </c>
       <c r="B400" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6299,15 +6059,15 @@
         <v>447</v>
       </c>
       <c r="B401" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
+        <v>449</v>
+      </c>
+      <c r="B402" t="s">
         <v>448</v>
-      </c>
-      <c r="B402" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6315,7 +6075,7 @@
         <v>450</v>
       </c>
       <c r="B403" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6323,7 +6083,7 @@
         <v>451</v>
       </c>
       <c r="B404" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6331,7 +6091,7 @@
         <v>452</v>
       </c>
       <c r="B405" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6339,7 +6099,7 @@
         <v>453</v>
       </c>
       <c r="B406" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6347,7 +6107,7 @@
         <v>454</v>
       </c>
       <c r="B407" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6355,7 +6115,7 @@
         <v>455</v>
       </c>
       <c r="B408" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6363,23 +6123,23 @@
         <v>456</v>
       </c>
       <c r="B409" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B410" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B411" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6387,7 +6147,7 @@
         <v>458</v>
       </c>
       <c r="B412" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6395,7 +6155,7 @@
         <v>459</v>
       </c>
       <c r="B413" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6403,7 +6163,7 @@
         <v>460</v>
       </c>
       <c r="B414" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6411,15 +6171,15 @@
         <v>461</v>
       </c>
       <c r="B415" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
+        <v>463</v>
+      </c>
+      <c r="B416" t="s">
         <v>462</v>
-      </c>
-      <c r="B416" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6427,7 +6187,7 @@
         <v>464</v>
       </c>
       <c r="B417" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6435,7 +6195,7 @@
         <v>465</v>
       </c>
       <c r="B418" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6443,7 +6203,7 @@
         <v>466</v>
       </c>
       <c r="B419" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6451,7 +6211,7 @@
         <v>467</v>
       </c>
       <c r="B420" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6459,7 +6219,7 @@
         <v>468</v>
       </c>
       <c r="B421" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6467,7 +6227,7 @@
         <v>469</v>
       </c>
       <c r="B422" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6475,7 +6235,7 @@
         <v>470</v>
       </c>
       <c r="B423" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6483,7 +6243,7 @@
         <v>471</v>
       </c>
       <c r="B424" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6491,7 +6251,7 @@
         <v>472</v>
       </c>
       <c r="B425" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6499,7 +6259,7 @@
         <v>473</v>
       </c>
       <c r="B426" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6507,7 +6267,7 @@
         <v>474</v>
       </c>
       <c r="B427" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6515,7 +6275,7 @@
         <v>475</v>
       </c>
       <c r="B428" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6523,7 +6283,7 @@
         <v>476</v>
       </c>
       <c r="B429" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6531,7 +6291,7 @@
         <v>477</v>
       </c>
       <c r="B430" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6539,7 +6299,7 @@
         <v>478</v>
       </c>
       <c r="B431" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6547,7 +6307,7 @@
         <v>479</v>
       </c>
       <c r="B432" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6555,36 +6315,36 @@
         <v>480</v>
       </c>
       <c r="B433" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
+        <v>482</v>
+      </c>
+      <c r="B434" t="s">
         <v>481</v>
-      </c>
-      <c r="B434" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B435" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B436" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B437" t="s">
         <v>486</v>
@@ -6592,10 +6352,10 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B438" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6603,7 +6363,7 @@
         <v>489</v>
       </c>
       <c r="B439" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6611,7 +6371,7 @@
         <v>490</v>
       </c>
       <c r="B440" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6619,7 +6379,7 @@
         <v>491</v>
       </c>
       <c r="B441" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6627,7 +6387,7 @@
         <v>492</v>
       </c>
       <c r="B442" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6635,7 +6395,7 @@
         <v>493</v>
       </c>
       <c r="B443" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6643,7 +6403,7 @@
         <v>494</v>
       </c>
       <c r="B444" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6651,7 +6411,7 @@
         <v>495</v>
       </c>
       <c r="B445" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6659,31 +6419,31 @@
         <v>496</v>
       </c>
       <c r="B446" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B447" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B448" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B449" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6691,7 +6451,7 @@
         <v>501</v>
       </c>
       <c r="B450" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6699,7 +6459,7 @@
         <v>502</v>
       </c>
       <c r="B451" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6707,7 +6467,7 @@
         <v>503</v>
       </c>
       <c r="B452" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6715,7 +6475,7 @@
         <v>504</v>
       </c>
       <c r="B453" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6723,7 +6483,7 @@
         <v>505</v>
       </c>
       <c r="B454" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6731,7 +6491,7 @@
         <v>506</v>
       </c>
       <c r="B455" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6739,7 +6499,7 @@
         <v>507</v>
       </c>
       <c r="B456" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6747,7 +6507,7 @@
         <v>508</v>
       </c>
       <c r="B457" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6755,660 +6515,660 @@
         <v>509</v>
       </c>
       <c r="B458" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
+        <v>511</v>
+      </c>
+      <c r="B459" t="s">
         <v>510</v>
-      </c>
-      <c r="B459" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B460" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B461" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B462" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>514</v>
-      </c>
-      <c r="B463" t="s">
-        <v>488</v>
+      <c r="A463" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>515</v>
-      </c>
-      <c r="B464" t="s">
-        <v>488</v>
+      <c r="A464" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>516</v>
-      </c>
-      <c r="B465" t="s">
-        <v>488</v>
+      <c r="A465" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>517</v>
-      </c>
-      <c r="B466" t="s">
-        <v>488</v>
+      <c r="A466" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>518</v>
-      </c>
-      <c r="B467" t="s">
-        <v>488</v>
+      <c r="A467" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" t="s">
+      <c r="A468" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B468" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
-        <v>520</v>
-      </c>
-      <c r="B469" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
-        <v>521</v>
-      </c>
-      <c r="B470" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
+      <c r="B505" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B471" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
-        <v>524</v>
-      </c>
-      <c r="B472" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
-        <v>525</v>
-      </c>
-      <c r="B473" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
-        <v>526</v>
-      </c>
-      <c r="B474" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
-        <v>527</v>
-      </c>
-      <c r="B475" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
-        <v>528</v>
-      </c>
-      <c r="B476" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
-        <v>529</v>
-      </c>
-      <c r="B477" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
-        <v>531</v>
-      </c>
-      <c r="B478" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>532</v>
-      </c>
-      <c r="B479" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>533</v>
-      </c>
-      <c r="B480" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" t="s">
-        <v>534</v>
-      </c>
-      <c r="B481" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" t="s">
-        <v>535</v>
-      </c>
-      <c r="B482" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" t="s">
-        <v>536</v>
-      </c>
-      <c r="B483" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" t="s">
-        <v>537</v>
-      </c>
-      <c r="B484" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>539</v>
-      </c>
-      <c r="B485" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>540</v>
-      </c>
-      <c r="B486" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" t="s">
-        <v>541</v>
-      </c>
-      <c r="B487" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" t="s">
-        <v>543</v>
-      </c>
-      <c r="B488" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" t="s">
-        <v>544</v>
-      </c>
-      <c r="B489" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>546</v>
-      </c>
-      <c r="B490" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>547</v>
-      </c>
-      <c r="B491" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>548</v>
-      </c>
-      <c r="B492" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" t="s">
-        <v>549</v>
-      </c>
-      <c r="B493" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" t="s">
-        <v>550</v>
-      </c>
-      <c r="B494" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" t="s">
-        <v>551</v>
-      </c>
-      <c r="B495" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" t="s">
-        <v>552</v>
-      </c>
-      <c r="B496" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" t="s">
-        <v>553</v>
-      </c>
-      <c r="B497" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" t="s">
-        <v>554</v>
-      </c>
-      <c r="B498" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" t="s">
-        <v>555</v>
-      </c>
-      <c r="B499" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" t="s">
+      <c r="B506" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B507" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" t="s">
+      <c r="B508" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B501" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" t="s">
+      <c r="B509" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B502" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" t="s">
+      <c r="B510" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B503" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
+      <c r="B511" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B504" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" t="s">
+      <c r="B512" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B505" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" t="s">
+      <c r="B513" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B506" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
+      <c r="B514" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B507" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" t="s">
+      <c r="B515" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B508" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" t="s">
+      <c r="B516" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B509" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" t="s">
+      <c r="B517" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B510" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" t="s">
+      <c r="B518" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B511" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" t="s">
+      <c r="B519" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B512" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" t="s">
+      <c r="B520" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B513" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" t="s">
+      <c r="B521" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B514" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" t="s">
+      <c r="B522" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B515" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" t="s">
+      <c r="B523" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B516" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" t="s">
+      <c r="B524" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B517" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" t="s">
+      <c r="B525" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B518" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" t="s">
+      <c r="B526" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B519" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" t="s">
+      <c r="B527" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B520" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" t="s">
+      <c r="B528" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B521" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" t="s">
+      <c r="B529" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B522" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" t="s">
+      <c r="B530" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B523" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" t="s">
+      <c r="B531" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B524" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" t="s">
+      <c r="B532" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B525" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" t="s">
+      <c r="B533" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B526" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" t="s">
+      <c r="B535" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B527" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
+      <c r="B536" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B528" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
+      <c r="B537" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B529" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" t="s">
-        <v>587</v>
-      </c>
-      <c r="B530" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" t="s">
-        <v>588</v>
-      </c>
-      <c r="B531" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" t="s">
-        <v>589</v>
-      </c>
-      <c r="B532" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
-      <c r="A533" t="s">
-        <v>590</v>
-      </c>
-      <c r="B533" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
-      <c r="A534" t="s">
-        <v>591</v>
-      </c>
-      <c r="B534" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" t="s">
-        <v>592</v>
-      </c>
-      <c r="B535" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" t="s">
-        <v>593</v>
-      </c>
-      <c r="B536" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" t="s">
-        <v>594</v>
-      </c>
-      <c r="B537" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
-      <c r="A538" t="s">
-        <v>595</v>
-      </c>
-      <c r="B538" t="s">
-        <v>557</v>
+      <c r="B538" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>597</v>
+        <v>240</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>240</v>
@@ -7416,7 +7176,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>240</v>
@@ -7424,7 +7184,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>240</v>
@@ -7432,7 +7192,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>240</v>
@@ -7440,7 +7200,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>240</v>
@@ -7448,7 +7208,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>240</v>
@@ -7456,7 +7216,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>240</v>
@@ -7464,7 +7224,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>240</v>
@@ -7472,7 +7232,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>240</v>
@@ -7480,7 +7240,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>240</v>
@@ -7488,7 +7248,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>240</v>
@@ -7496,7 +7256,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>240</v>
@@ -7504,7 +7264,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>240</v>
@@ -7512,7 +7272,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>240</v>
@@ -7520,7 +7280,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>240</v>
@@ -7528,7 +7288,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>240</v>
@@ -7536,7 +7296,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>240</v>
@@ -7544,7 +7304,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>240</v>
@@ -7552,7 +7312,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>240</v>
@@ -7560,7 +7320,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>240</v>
@@ -7568,7 +7328,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>240</v>
@@ -7576,7 +7336,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>240</v>
@@ -7584,7 +7344,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>240</v>
@@ -7592,7 +7352,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>240</v>
@@ -7600,7 +7360,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>240</v>
@@ -7608,7 +7368,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>240</v>
@@ -7616,7 +7376,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>240</v>
@@ -7624,7 +7384,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>240</v>
@@ -7632,7 +7392,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>240</v>
@@ -7640,7 +7400,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>240</v>
@@ -7648,7 +7408,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>240</v>
@@ -7656,7 +7416,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>240</v>
@@ -7664,7 +7424,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>240</v>
@@ -7672,7 +7432,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>240</v>
@@ -7680,7 +7440,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>240</v>
@@ -7688,7 +7448,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>240</v>
@@ -7696,7 +7456,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>240</v>
@@ -7704,7 +7464,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>240</v>
@@ -7712,7 +7472,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>240</v>
@@ -7720,7 +7480,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>240</v>
@@ -7728,7 +7488,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>240</v>
@@ -7736,7 +7496,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>240</v>
@@ -7744,7 +7504,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>240</v>
@@ -7752,7 +7512,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>240</v>
@@ -7760,7 +7520,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>240</v>
@@ -7768,7 +7528,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>240</v>
@@ -7776,7 +7536,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>240</v>
@@ -7784,7 +7544,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>240</v>
@@ -7792,7 +7552,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>240</v>
@@ -7800,7 +7560,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>240</v>
@@ -7808,7 +7568,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>240</v>
@@ -7816,7 +7576,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>240</v>
@@ -7824,7 +7584,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>240</v>
@@ -7832,7 +7592,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>240</v>
@@ -7840,7 +7600,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>240</v>
@@ -7848,7 +7608,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>240</v>
@@ -7856,7 +7616,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>240</v>
@@ -7864,7 +7624,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>240</v>
@@ -7872,7 +7632,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>240</v>
@@ -7880,7 +7640,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>240</v>
@@ -7888,7 +7648,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>240</v>
@@ -7896,7 +7656,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>240</v>
@@ -7904,7 +7664,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>240</v>
@@ -7912,7 +7672,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>240</v>
@@ -7920,7 +7680,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>240</v>
@@ -7928,7 +7688,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B605" s="2" t="s">
         <v>240</v>
@@ -7936,7 +7696,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>240</v>
@@ -7944,7 +7704,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>240</v>
@@ -7952,7 +7712,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B608" s="2" t="s">
         <v>240</v>
@@ -7960,7 +7720,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>240</v>
@@ -7968,7 +7728,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>240</v>
@@ -7976,7 +7736,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>240</v>
@@ -7984,7 +7744,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>240</v>
@@ -7992,7 +7752,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>240</v>
@@ -8000,7 +7760,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B614" s="2" t="s">
         <v>240</v>
@@ -8008,7 +7768,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B615" s="2" t="s">
         <v>240</v>
@@ -8016,7 +7776,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B616" s="2" t="s">
         <v>240</v>
@@ -8024,7 +7784,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B617" s="2" t="s">
         <v>240</v>
@@ -8032,7 +7792,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B618" s="2" t="s">
         <v>240</v>
@@ -8040,7 +7800,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B619" s="2" t="s">
         <v>240</v>
@@ -8048,7 +7808,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B620" s="2" t="s">
         <v>240</v>
@@ -8056,7 +7816,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B621" s="2" t="s">
         <v>240</v>
@@ -8064,7 +7824,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B622" s="2" t="s">
         <v>240</v>
@@ -8072,7 +7832,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B623" s="2" t="s">
         <v>240</v>
@@ -8080,7 +7840,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B624" s="2" t="s">
         <v>240</v>
@@ -8088,7 +7848,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B625" s="2" t="s">
         <v>240</v>
@@ -8096,7 +7856,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>240</v>
@@ -8104,7 +7864,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>240</v>
@@ -8112,7 +7872,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B628" s="2" t="s">
         <v>240</v>
@@ -8120,7 +7880,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>240</v>
@@ -8128,7 +7888,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>240</v>
@@ -8136,7 +7896,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B631" s="2" t="s">
         <v>240</v>
@@ -8144,7 +7904,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B632" s="2" t="s">
         <v>240</v>
@@ -8152,7 +7912,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B633" s="2" t="s">
         <v>240</v>
@@ -8160,7 +7920,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B634" s="2" t="s">
         <v>240</v>
@@ -8168,7 +7928,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>240</v>
@@ -8176,7 +7936,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B636" s="2" t="s">
         <v>240</v>
@@ -8184,7 +7944,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B637" s="2" t="s">
         <v>240</v>
@@ -8192,7 +7952,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>240</v>
@@ -8200,7 +7960,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B639" s="2" t="s">
         <v>240</v>
@@ -8208,7 +7968,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B640" s="2" t="s">
         <v>240</v>
@@ -8216,7 +7976,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B641" s="2" t="s">
         <v>240</v>
@@ -8224,7 +7984,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B642" s="2" t="s">
         <v>240</v>
@@ -8232,7 +7992,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>240</v>
@@ -8240,7 +8000,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B644" s="2" t="s">
         <v>240</v>
@@ -8248,7 +8008,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B645" s="2" t="s">
         <v>240</v>
@@ -8256,7 +8016,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B646" s="2" t="s">
         <v>240</v>
@@ -8264,7 +8024,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B647" s="2" t="s">
         <v>240</v>
@@ -8272,7 +8032,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B648" s="2" t="s">
         <v>240</v>
@@ -8280,7 +8040,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B649" s="2" t="s">
         <v>240</v>
@@ -8288,7 +8048,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B650" s="2" t="s">
         <v>240</v>
@@ -8296,7 +8056,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B651" s="2" t="s">
         <v>240</v>
@@ -8304,7 +8064,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B652" s="2" t="s">
         <v>240</v>
@@ -8312,7 +8072,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>240</v>
@@ -8320,7 +8080,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B654" s="2" t="s">
         <v>240</v>
@@ -8328,7 +8088,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>240</v>
@@ -8336,7 +8096,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B656" s="2" t="s">
         <v>240</v>
@@ -8344,7 +8104,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B657" s="2" t="s">
         <v>240</v>
@@ -8352,7 +8112,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B658" s="2" t="s">
         <v>240</v>
@@ -8360,7 +8120,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B659" s="2" t="s">
         <v>240</v>
@@ -8368,7 +8128,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B660" s="2" t="s">
         <v>240</v>
@@ -8376,7 +8136,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B661" s="2" t="s">
         <v>240</v>
@@ -8384,7 +8144,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B662" s="2" t="s">
         <v>240</v>
@@ -8392,7 +8152,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>240</v>
@@ -8400,7 +8160,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B664" s="2" t="s">
         <v>240</v>
@@ -8408,7 +8168,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B665" s="2" t="s">
         <v>240</v>
@@ -8416,7 +8176,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B666" s="2" t="s">
         <v>240</v>
@@ -8424,7 +8184,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B667" s="2" t="s">
         <v>240</v>
@@ -8432,7 +8192,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B668" s="2" t="s">
         <v>240</v>
@@ -8440,7 +8200,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B669" s="2" t="s">
         <v>240</v>
@@ -8448,7 +8208,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B670" s="2" t="s">
         <v>240</v>
@@ -8456,7 +8216,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B671" s="2" t="s">
         <v>240</v>
@@ -8464,7 +8224,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B672" s="2" t="s">
         <v>240</v>
@@ -8472,1346 +8232,738 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>240</v>
+        <v>722</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B765" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B766" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B768" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B769" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B770" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B774" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B776" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B778" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2">
-      <c r="A779" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B780" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="B781" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B782" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B784" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B785" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2">
-      <c r="A786" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B786" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2">
-      <c r="A787" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B787" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="A788" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="B789" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B790" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2">
-      <c r="A791" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2">
-      <c r="A792" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B792" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="B793" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="B794" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B795" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="B796" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="B797" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B799" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B800" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="B801" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B802" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="A803" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B803" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B804" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="A805" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B805" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="A806" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="A807" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B807" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2">
-      <c r="A808" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="A809" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="B809" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="B810" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B812" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="B813" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B814" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="B815" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B816" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B817" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B818" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B820" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="B821" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B822" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B823" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B824" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="B825" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B826" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B827" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B829" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B830" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B831" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B832" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="B833" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B834" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B835" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B836" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B837" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B838" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B839" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="B840" s="2" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
